--- a/m3u8.xlsx
+++ b/m3u8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
   <si>
     <t>coverpath</t>
   </si>
@@ -25,9 +25,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>auther</t>
-  </si>
-  <si>
     <t>authername</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>【无码】天空天使蓝Vol.146：aki口真纪SKYHD-154无码中出口交美少女萝莉</t>
-  </si>
-  <si>
-    <t>阿星</t>
   </si>
   <si>
     <t>aki口真纪</t>
@@ -477,7 +471,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -517,7 +511,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -557,7 +551,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -597,7 +591,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -637,7 +631,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -677,7 +671,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -717,7 +711,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -757,7 +751,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -797,7 +791,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -837,7 +831,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -877,7 +871,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -917,7 +911,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -957,7 +951,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -997,7 +991,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1037,7 +1031,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1077,7 +1071,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1117,7 +1111,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1157,7 +1151,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1197,7 +1191,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1237,7 +1231,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1277,7 +1271,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1596,16 +1590,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1636,705 +1630,639 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="93" customHeight="1">
+    <row r="2" spans="1:10" ht="93" customHeight="1">
       <c r="B2">
         <v>13965</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>1505388</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2">
-        <v>1505388</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="93" customHeight="1">
+    <row r="3" spans="1:10" ht="93" customHeight="1">
       <c r="B3">
         <v>13963</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>1917988</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3">
-        <v>1917988</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="93" customHeight="1">
+    <row r="4" spans="1:10" ht="93" customHeight="1">
       <c r="B4">
         <v>13962</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4">
+        <v>960988</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4">
-        <v>960988</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" ht="93" customHeight="1">
+    <row r="5" spans="1:10" ht="93" customHeight="1">
       <c r="B5">
         <v>13961</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5">
+        <v>956652</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H5">
-        <v>956652</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" ht="93" customHeight="1">
+    <row r="6" spans="1:10" ht="93" customHeight="1">
       <c r="B6">
         <v>13960</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6">
+        <v>1116808</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H6">
-        <v>1116808</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" ht="93" customHeight="1">
+    <row r="7" spans="1:10" ht="93" customHeight="1">
       <c r="B7">
         <v>13959</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7">
+        <v>957472</v>
+      </c>
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H7">
-        <v>957472</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7">
-        <v>22</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="8" spans="1:11" ht="93" customHeight="1">
+    <row r="8" spans="1:10" ht="93" customHeight="1">
       <c r="B8">
         <v>13957</v>
       </c>
       <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8">
+        <v>956968</v>
+      </c>
+      <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H8">
-        <v>956968</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="9" spans="1:11" ht="93" customHeight="1">
+    <row r="9" spans="1:10" ht="93" customHeight="1">
       <c r="B9">
         <v>13956</v>
       </c>
       <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9">
+        <v>960048</v>
+      </c>
+      <c r="H9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H9">
-        <v>960048</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="10" spans="1:11" ht="93" customHeight="1">
+    <row r="10" spans="1:10" ht="93" customHeight="1">
       <c r="B10">
         <v>13955</v>
       </c>
       <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10">
+        <v>955608</v>
+      </c>
+      <c r="H10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H10">
-        <v>955608</v>
-      </c>
-      <c r="I10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="11" spans="1:11" ht="93" customHeight="1">
+    <row r="11" spans="1:10" ht="93" customHeight="1">
       <c r="B11">
         <v>13954</v>
       </c>
       <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
         <v>66</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11">
+        <v>960268</v>
+      </c>
+      <c r="H11" t="s">
         <v>68</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H11">
-        <v>960268</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="12" spans="1:11" ht="93" customHeight="1">
+    <row r="12" spans="1:10" ht="93" customHeight="1">
       <c r="B12">
         <v>13953</v>
       </c>
       <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12">
+        <v>953268</v>
+      </c>
+      <c r="H12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H12">
-        <v>953268</v>
-      </c>
-      <c r="I12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="13" spans="1:11" ht="93" customHeight="1">
+    <row r="13" spans="1:10" ht="93" customHeight="1">
       <c r="B13">
         <v>13952</v>
       </c>
       <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>1144812</v>
+      </c>
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13">
-        <v>1144812</v>
-      </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13">
-        <v>22</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="14" spans="1:11" ht="93" customHeight="1">
+    <row r="14" spans="1:10" ht="93" customHeight="1">
       <c r="B14">
         <v>13951</v>
       </c>
       <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>84</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14">
+        <v>959943</v>
+      </c>
+      <c r="H14" t="s">
         <v>85</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H14">
-        <v>959943</v>
-      </c>
-      <c r="I14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="15" spans="1:11" ht="93" customHeight="1">
+    <row r="15" spans="1:10" ht="93" customHeight="1">
       <c r="B15">
         <v>13950</v>
       </c>
       <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
         <v>89</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15">
+        <v>959848</v>
+      </c>
+      <c r="H15" t="s">
         <v>91</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H15">
-        <v>959848</v>
-      </c>
-      <c r="I15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="16" spans="1:11" ht="93" customHeight="1">
+    <row r="16" spans="1:10" ht="93" customHeight="1">
       <c r="B16">
         <v>13949</v>
       </c>
       <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
         <v>95</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>96</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16">
+        <v>966608</v>
+      </c>
+      <c r="H16" t="s">
         <v>97</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H16">
-        <v>966608</v>
-      </c>
-      <c r="I16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16">
-        <v>23</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="17" spans="2:11" ht="93" customHeight="1">
+    <row r="17" spans="2:10" ht="93" customHeight="1">
       <c r="B17">
         <v>13948</v>
       </c>
       <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
         <v>101</v>
       </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17">
+        <v>961188</v>
+      </c>
+      <c r="H17" t="s">
         <v>102</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17">
+        <v>51</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H17">
-        <v>961188</v>
-      </c>
-      <c r="I17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17">
-        <v>51</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="18" spans="2:11" ht="93" customHeight="1">
+    <row r="18" spans="2:10" ht="93" customHeight="1">
       <c r="B18">
         <v>13947</v>
       </c>
       <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" t="s">
         <v>106</v>
       </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18">
+        <v>953672</v>
+      </c>
+      <c r="H18" t="s">
         <v>107</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H18">
-        <v>953672</v>
-      </c>
-      <c r="I18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18">
-        <v>24</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>110</v>
-      </c>
     </row>
-    <row r="19" spans="2:11" ht="93" customHeight="1">
+    <row r="19" spans="2:10" ht="93" customHeight="1">
       <c r="B19">
         <v>13946</v>
       </c>
       <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
         <v>111</v>
       </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19">
+        <v>955042</v>
+      </c>
+      <c r="H19" t="s">
         <v>112</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H19">
-        <v>955042</v>
-      </c>
-      <c r="I19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19">
-        <v>24</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="20" spans="2:11" ht="93" customHeight="1">
+    <row r="20" spans="2:10" ht="93" customHeight="1">
       <c r="B20">
         <v>13945</v>
       </c>
       <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
         <v>116</v>
       </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20">
+        <v>1112428</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20">
-        <v>1112428</v>
-      </c>
-      <c r="I20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20">
-        <v>16</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="21" spans="2:11" ht="93" customHeight="1">
+    <row r="21" spans="2:10" ht="93" customHeight="1">
       <c r="B21">
         <v>13944</v>
       </c>
       <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
         <v>120</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21">
+        <v>961532</v>
+      </c>
+      <c r="H21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G21" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21">
-        <v>961532</v>
-      </c>
-      <c r="I21" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21">
-        <v>16</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="22" spans="2:11" ht="93" customHeight="1">
+    <row r="22" spans="2:10" ht="93" customHeight="1">
       <c r="B22">
         <v>13943</v>
       </c>
       <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
         <v>124</v>
       </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22">
+        <v>7264408</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22">
-        <v>7264408</v>
-      </c>
-      <c r="I22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="K19" r:id="rId18"/>
-    <hyperlink ref="K20" r:id="rId19"/>
-    <hyperlink ref="K21" r:id="rId20"/>
-    <hyperlink ref="K22" r:id="rId21"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J8" r:id="rId7"/>
+    <hyperlink ref="J9" r:id="rId8"/>
+    <hyperlink ref="J10" r:id="rId9"/>
+    <hyperlink ref="J11" r:id="rId10"/>
+    <hyperlink ref="J12" r:id="rId11"/>
+    <hyperlink ref="J13" r:id="rId12"/>
+    <hyperlink ref="J14" r:id="rId13"/>
+    <hyperlink ref="J15" r:id="rId14"/>
+    <hyperlink ref="J16" r:id="rId15"/>
+    <hyperlink ref="J17" r:id="rId16"/>
+    <hyperlink ref="J18" r:id="rId17"/>
+    <hyperlink ref="J19" r:id="rId18"/>
+    <hyperlink ref="J20" r:id="rId19"/>
+    <hyperlink ref="J21" r:id="rId20"/>
+    <hyperlink ref="J22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId22"/>
